--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15426\Desktop\日报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7012A-DC35-44FA-9B14-4EBD04364D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496ADA4-145B-46DB-8908-0B22C1B02981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -386,6 +386,30 @@
   </si>
   <si>
     <t>在以后的项目中多进行编程练习</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.19</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习C语言的高级特性</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习指针</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习结构体</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>听课 做习题</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1217,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,6 +1547,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,96 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1677,12 +1615,110 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15255,17 +15291,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -15888,16 +15924,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16087,15 +16123,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16152,8 +16188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16172,17 +16208,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16211,7 +16247,7 @@
       <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="103" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -16239,46 +16275,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="113">
         <v>43664</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="116">
         <v>43664</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16297,19 +16333,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16318,19 +16354,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16339,19 +16375,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16360,19 +16396,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16381,68 +16417,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16462,61 +16498,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128" t="s">
+      <c r="D19" s="135"/>
+      <c r="E19" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="130"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="149" t="s">
+      <c r="D20" s="140"/>
+      <c r="E20" s="141" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16536,36 +16572,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -16582,6 +16618,428 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
+    </row>
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+    </row>
+    <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="2:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="23">
+        <v>5</v>
+      </c>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="23">
+        <v>7</v>
+      </c>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="129" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="26">
+        <f>SUM(F10:F16)</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
+    </row>
+    <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="27">
+        <v>1</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
+    </row>
+    <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="28">
+        <v>2</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
+    </row>
+    <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="29">
+        <v>3</v>
+      </c>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16604,17 +17062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16667,40 +17125,40 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16719,19 +17177,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16740,13 +17198,13 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16755,13 +17213,13 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16770,13 +17228,13 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="126"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16785,68 +17243,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="126"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="126"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="126"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="134"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16866,57 +17324,57 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128" t="s">
+      <c r="D19" s="135"/>
+      <c r="E19" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="130"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="143"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16936,434 +17394,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
-  </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:J27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
-    </row>
-    <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
-    </row>
-    <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
-    </row>
-    <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="2:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="144" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="23">
-        <v>2</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="25">
-        <v>3</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="23">
-        <v>4</v>
-      </c>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="23">
-        <v>5</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="25">
-        <v>6</v>
-      </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="23">
-        <v>7</v>
-      </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="26">
-        <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="128" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="130"/>
-    </row>
-    <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="27">
-        <v>1</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
-    </row>
-    <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="28">
-        <v>2</v>
-      </c>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-    </row>
-    <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="29">
-        <v>3</v>
-      </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6">
-      <c r="B24" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.6">
-      <c r="B25" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15.6">
-      <c r="B26" s="30"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.6">
-      <c r="B27" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">

--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496ADA4-145B-46DB-8908-0B22C1B02981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742340C-A298-488A-9242-14EC5A423DD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -410,6 +410,59 @@
   </si>
   <si>
     <t>听课 做习题</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.20</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子辞典</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言复习和项目认识</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习链表</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习文件操作</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论项目基本需求</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2班</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1270,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1604,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,6 +1617,103 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1611,114 +1765,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15291,17 +15351,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -15924,16 +15984,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16123,15 +16183,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16208,17 +16268,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16275,46 +16335,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="142">
         <v>43664</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="145">
         <v>43664</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16333,19 +16393,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16354,19 +16414,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="124" t="s">
+      <c r="G10" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16375,19 +16435,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16396,19 +16456,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="124" t="s">
+      <c r="G12" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16417,68 +16477,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16498,61 +16558,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141" t="s">
+      <c r="D20" s="110"/>
+      <c r="E20" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16572,36 +16632,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -16620,7 +16680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -16640,17 +16700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16673,7 +16733,7 @@
       <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="150" t="s">
+      <c r="E3" s="104" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -16707,46 +16767,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="145" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16765,19 +16825,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16786,19 +16846,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16807,19 +16867,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="152" t="s">
+      <c r="G11" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16828,81 +16888,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16922,61 +16982,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141" t="s">
+      <c r="D20" s="110"/>
+      <c r="E20" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16996,36 +17056,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17042,8 +17102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17062,17 +17122,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17095,16 +17155,20 @@
       <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="104" t="s">
+        <v>65</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="103" t="s">
+        <v>66</v>
+      </c>
       <c r="H3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>31</v>
+      <c r="I3" s="153" t="s">
+        <v>71</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -17125,40 +17189,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="112"/>
+      <c r="C5" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="C6" s="142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="118"/>
+      <c r="C7" s="145" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17177,19 +17247,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17198,13 +17268,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
+      <c r="C10" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="135"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17213,13 +17287,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="126"/>
+      <c r="C11" s="134" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="24">
+        <v>3</v>
+      </c>
+      <c r="G11" s="135"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17228,13 +17306,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="126"/>
+      <c r="C12" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="135"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17243,68 +17325,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="126"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="126"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="126"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="126"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="134"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17324,57 +17406,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="133"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="143"/>
+      <c r="C20" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="119"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17394,36 +17478,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">

--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742340C-A298-488A-9242-14EC5A423DD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5776F2E4-F08B-4545-94DC-8DF2A25F649C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -19,11 +19,16 @@
     <sheet name="2019-7-18" sheetId="1" r:id="rId4"/>
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
+    <sheet name="2019-7-21" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="6">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
+    <definedName name="模块" localSheetId="6">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -463,6 +468,22 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.7.21</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>书写个人项目需求分析</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人项目框架设计</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行个人项目设计</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
@@ -1608,6 +1629,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,103 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1765,16 +1693,109 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14960,6 +14981,85 @@
         <a:xfrm>
           <a:off x="8086725" y="76200"/>
           <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF238F0-A020-4077-9A19-806118AE5FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15351,17 +15451,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -15984,16 +16084,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16183,15 +16283,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16268,17 +16368,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16335,46 +16435,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="142">
+      <c r="C6" s="115">
         <v>43664</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="118">
         <v>43664</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16393,19 +16493,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16414,19 +16514,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="135" t="s">
+      <c r="G10" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16435,19 +16535,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="135" t="s">
+      <c r="G11" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16456,19 +16556,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16477,68 +16577,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16558,61 +16658,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111" t="s">
+      <c r="D20" s="142"/>
+      <c r="E20" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16632,36 +16732,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -16700,17 +16800,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16770,43 +16870,43 @@
       <c r="C5" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16825,19 +16925,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16846,19 +16946,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16867,19 +16967,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="151" t="s">
+      <c r="G11" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16888,81 +16988,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16982,61 +17082,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="111" t="s">
+      <c r="D20" s="142"/>
+      <c r="E20" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17056,36 +17156,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17102,8 +17202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17122,17 +17222,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17167,7 +17267,7 @@
       <c r="H3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="153" t="s">
+      <c r="I3" s="105" t="s">
         <v>71</v>
       </c>
       <c r="J3" s="12"/>
@@ -17192,43 +17292,43 @@
       <c r="C5" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17247,19 +17347,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17268,17 +17368,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="135"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17287,17 +17387,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="135"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17306,17 +17406,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="135"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17325,68 +17425,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17406,18 +17506,18 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="130" t="s">
+      <c r="C19" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="D19" s="137"/>
+      <c r="E19" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="133"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
@@ -17426,39 +17526,39 @@
       <c r="C20" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="119"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17478,36 +17578,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17519,4 +17619,419 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D979DDF-7268-4980-BC3A-A986F7680EA2}">
+  <dimension ref="B1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="1.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="47.25" customHeight="1">
+      <c r="B1" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+    </row>
+    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" s="2" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
+    </row>
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
+    </row>
+    <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="120"/>
+    </row>
+    <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="2:10" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="24">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="25"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="23">
+        <v>5</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="25">
+        <v>6</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="23">
+        <v>7</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="26">
+        <f>SUM(F10:F16)</f>
+        <v>7</v>
+      </c>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+    </row>
+    <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="27">
+        <v>1</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="142"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="145"/>
+    </row>
+    <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="28">
+        <v>2</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B22" s="29">
+        <v>3</v>
+      </c>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6">
+      <c r="B24" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.6">
+      <c r="B25" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.6">
+      <c r="B26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.6">
+      <c r="B27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="B6" xr:uid="{620B3F34-94E5-4D4F-B2CD-9C4B3B3841B1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="B5" xr:uid="{89DA7E95-A939-4E13-84CD-26FA50094CE3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="B4" xr:uid="{FFA7957F-157A-4183-89F1-54EA582DF487}"/>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5776F2E4-F08B-4545-94DC-8DF2A25F649C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD919E-7E07-49AA-A69F-9CCEFBF932EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2019-7-19" sheetId="7" r:id="rId5"/>
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="10" r:id="rId7"/>
+    <sheet name="2019-7-22" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -486,12 +487,63 @@
     <t>进行个人项目设计</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
+  <si>
+    <t>电子词典</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2班</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组</t>
+    </r>
+  </si>
+  <si>
+    <t>重写项目需求分析</t>
+  </si>
+  <si>
+    <t>根据老师要求及演示重写项目需求分析</t>
+  </si>
+  <si>
+    <t>多次使用电子词典完善不足</t>
+  </si>
+  <si>
+    <t>完成项目代码编写以及补充需求分析报告</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善个人项目代码</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="56">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -806,6 +858,41 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1291,7 +1378,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,6 +1720,70 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1800,6 +1951,76 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -15036,6 +15257,85 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF238F0-A020-4077-9A19-806118AE5FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8069580" y="76200"/>
+          <a:ext cx="1830705" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F1E178-0C49-46CF-92C6-5B0171378CCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15451,17 +15751,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="107"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -16084,16 +16384,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16283,15 +16583,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16368,17 +16668,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16435,46 +16735,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="131">
         <v>43664</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="134">
         <v>43664</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16493,19 +16793,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16514,19 +16814,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16535,19 +16835,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="126" t="s">
+      <c r="G11" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16556,19 +16856,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16577,68 +16877,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16658,61 +16958,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="153"/>
+      <c r="E19" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143" t="s">
+      <c r="D20" s="158"/>
+      <c r="E20" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -16800,17 +17100,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16867,46 +17167,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16925,19 +17225,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16946,19 +17246,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16967,19 +17267,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="153" t="s">
+      <c r="G11" s="169" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16988,81 +17288,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17082,61 +17382,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="153"/>
+      <c r="E19" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143" t="s">
+      <c r="D20" s="158"/>
+      <c r="E20" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17222,17 +17522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17289,46 +17589,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="168" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17347,19 +17647,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17368,17 +17668,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17387,17 +17687,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17406,17 +17706,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17425,68 +17725,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17506,59 +17806,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="153"/>
+      <c r="E19" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17625,8 +17925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D979DDF-7268-4980-BC3A-A986F7680EA2}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -17645,17 +17945,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17712,46 +18012,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="130"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="C7" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="120"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17770,19 +18070,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="121" t="s">
+      <c r="G9" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17791,17 +18091,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="124" t="s">
+      <c r="C10" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="144"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17810,98 +18110,98 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="144"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="144"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="131" t="s">
+      <c r="B17" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="136"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="152"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17921,59 +18221,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="138" t="s">
+      <c r="D19" s="153"/>
+      <c r="E19" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="154" t="s">
+      <c r="C20" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="145"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="161"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18034,4 +18334,438 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EC58CE-CBDE-49C2-8877-B338C4316609}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="9" max="9" width="40.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="109"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43668</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="130"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="185">
+        <v>43668</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="186">
+        <v>43668</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="187" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="187" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="172"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="24">
+        <v>4</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="106"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="169" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="141"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120">
+        <v>6</v>
+      </c>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="141"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="176" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="26">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="182"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="174" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="158"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="161"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>2</v>
+      </c>
+      <c r="B21" s="157"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="162"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="161"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="163"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{624CABC6-081D-4BD3-9F91-97A7BA46C2B8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{BF4A0928-067F-44BD-BDAC-FA06C1CA4A25}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{222E9317-C053-46CF-A8F0-5BD616FF0345}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CD919E-7E07-49AA-A69F-9CCEFBF932EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D9DA05-8450-4DBD-959F-18A17A286092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -21,15 +21,20 @@
     <sheet name="2019-7-20" sheetId="8" r:id="rId6"/>
     <sheet name="2019-7-21" sheetId="10" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="11" r:id="rId8"/>
+    <sheet name="2019-7-23" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
+    <definedName name="父活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="父活动类型名">#REF!</definedName>
     <definedName name="里程碑" localSheetId="6">#REF!</definedName>
+    <definedName name="里程碑" localSheetId="8">#REF!</definedName>
     <definedName name="里程碑">#REF!</definedName>
     <definedName name="模块" localSheetId="6">#REF!</definedName>
+    <definedName name="模块" localSheetId="8">#REF!</definedName>
     <definedName name="模块">#REF!</definedName>
     <definedName name="子活动类型名" localSheetId="6">#REF!</definedName>
+    <definedName name="子活动类型名" localSheetId="8">#REF!</definedName>
     <definedName name="子活动类型名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -538,12 +543,61 @@
     <t>完善个人项目代码</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
+  <si>
+    <t>完成个人项目代码</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习MFC</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据tutorial学习MFC</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讨论，分配小组任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制定里程碑</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作项目开机</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="62">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -893,6 +947,12 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1378,7 +1438,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,6 +1844,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1793,6 +1865,103 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1844,155 +2013,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2020,6 +2050,60 @@
     </xf>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -15394,6 +15478,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D2B32B1-D8CB-4CA8-84C3-622777DD57AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383780" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15751,17 +15914,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -16384,16 +16547,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16583,15 +16746,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16668,17 +16831,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16735,46 +16898,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="162">
         <v>43664</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="165">
         <v>43664</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16793,19 +16956,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16814,19 +16977,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="142" t="s">
+      <c r="G10" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16835,19 +16998,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="142" t="s">
+      <c r="G11" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -16856,19 +17019,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="142" t="s">
+      <c r="G12" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -16877,68 +17040,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -16958,61 +17121,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17032,36 +17195,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17100,17 +17263,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17167,46 +17330,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17225,19 +17388,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17246,19 +17409,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="169" t="s">
+      <c r="G10" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17267,19 +17430,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="169" t="s">
+      <c r="G11" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17288,81 +17451,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17382,61 +17545,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="159" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17456,36 +17619,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17522,17 +17685,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17589,46 +17752,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="172" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17647,19 +17810,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17668,17 +17831,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17687,17 +17850,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17706,17 +17869,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17725,68 +17888,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17806,59 +17969,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17878,36 +18041,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17945,17 +18108,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18012,46 +18175,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="168" t="s">
+      <c r="C5" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18070,19 +18233,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="C9" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="170"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="137" t="s">
+      <c r="G9" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="170"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18091,17 +18254,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="144"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18110,98 +18273,98 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="154" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="144"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="144"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="144"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="144"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="144"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="144"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="149"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="146"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="152"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18221,59 +18384,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="153" t="s">
+      <c r="C19" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154" t="s">
+      <c r="D19" s="150"/>
+      <c r="E19" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="158"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="161"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="161"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="133"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18293,36 +18456,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18340,7 +18503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EC58CE-CBDE-49C2-8877-B338C4316609}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21:I21"/>
     </sheetView>
   </sheetViews>
@@ -18353,17 +18516,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -18420,46 +18583,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="130"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="185">
+      <c r="B6" s="176">
         <v>43668</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="164"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="186">
+      <c r="B7" s="177">
         <v>43668</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -18478,19 +18641,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="187" t="s">
+      <c r="B9" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="189"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="187" t="s">
+      <c r="F9" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="189"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="180"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -18499,11 +18662,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="173"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
       <c r="E10" s="24">
         <v>4</v>
       </c>
@@ -18520,19 +18683,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="169" t="s">
+      <c r="F11" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -18541,81 +18704,81 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="144"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="144"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="144"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="144"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="152"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18635,59 +18798,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180" t="s">
+      <c r="C19" s="184"/>
+      <c r="D19" s="185" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="182"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="158"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="161"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="161"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18728,22 +18891,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B10:D10"/>
@@ -18757,6 +18904,22 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18768,4 +18931,446 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2374B758-A7DF-439E-A034-9A4A358A63C8}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="9" max="9" width="40.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="109"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43668</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="161"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="176">
+        <v>43669</v>
+      </c>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="164"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="177">
+        <v>43669</v>
+      </c>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="179"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="24">
+        <v>3</v>
+      </c>
+      <c r="F10" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+      <c r="F11" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="195" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="140"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120">
+        <v>6</v>
+      </c>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="181" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="26">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="191" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="130"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="133"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>2</v>
+      </c>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="135"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{8D4919A1-67E5-4421-93C2-8B497DC52067}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{0E433F34-C0A3-4BF3-B8E4-52F92EA9558C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{52650D6D-368A-40B0-85D5-CAEB21E9A081}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D9DA05-8450-4DBD-959F-18A17A286092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B6ECB-2261-412E-8C07-EDA65B8F79CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2019-7-21" sheetId="10" r:id="rId7"/>
     <sheet name="2019-7-22" sheetId="11" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="12" r:id="rId9"/>
+    <sheet name="2019-7-24" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="97">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -590,6 +591,59 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始小组项目代码编写</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目代码UI设计</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并查询功能</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并完成了UI基本框架的编码</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>将熊伟的查询功能进行了功能合并</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成计时器功能和VIP登陆功能</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成计时器功能和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆功能</t>
+    </r>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
@@ -1438,7 +1492,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,6 +1910,22 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,103 +1935,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2013,16 +1986,155 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2052,58 +2164,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -15557,6 +15623,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DB7200-4C43-45D7-8BDE-2E0BE057500C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383780" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -15914,17 +16059,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -16238,6 +16383,447 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B491877D-99BA-4A29-98C0-1CED9F54C7C1}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="46.19921875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="190" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="109"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43670</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="191" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="192">
+        <v>43669</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="193">
+        <v>43669</v>
+      </c>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="194" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="194" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="178" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="24">
+        <v>3</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="197" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="198" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120">
+        <v>6</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="26">
+        <f>SUM(E10:E16)</f>
+        <v>6</v>
+      </c>
+      <c r="F17" s="157"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="186" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="181" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="165"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="168"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>2</v>
+      </c>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{6D3D9845-2095-458C-91C6-3D041A781662}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{16F5F97B-5639-4957-A869-2D6A80201C2C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{0E8022EF-2E48-45AE-9C54-C1121481C6CF}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16547,16 +17133,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -16746,15 +17332,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -16831,17 +17417,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -16898,46 +17484,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="138">
         <v>43664</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="165">
+      <c r="C7" s="141">
         <v>43664</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -16956,19 +17542,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="168" t="s">
+      <c r="G9" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -16977,19 +17563,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -16998,19 +17584,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17019,19 +17605,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17040,68 +17626,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17121,61 +17707,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131" t="s">
+      <c r="D20" s="165"/>
+      <c r="E20" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17195,36 +17781,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17263,17 +17849,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17330,46 +17916,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17388,19 +17974,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="168" t="s">
+      <c r="G9" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17409,19 +17995,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="171" t="s">
+      <c r="G10" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17430,19 +18016,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="171" t="s">
+      <c r="G11" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17451,81 +18037,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="156"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17545,61 +18131,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131" t="s">
+      <c r="D20" s="165"/>
+      <c r="E20" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17619,36 +18205,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17685,17 +18271,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17752,46 +18338,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="141" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17810,19 +18396,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="168" t="s">
+      <c r="G9" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17831,17 +18417,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17850,17 +18436,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17869,17 +18455,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="154" t="s">
+      <c r="C12" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17888,68 +18474,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17969,59 +18555,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18041,36 +18627,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18108,17 +18694,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18175,46 +18761,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="175" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18233,19 +18819,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="169"/>
-      <c r="E9" s="170"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="168" t="s">
+      <c r="G9" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="169"/>
-      <c r="I9" s="170"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18254,17 +18840,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="155"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="151"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18273,98 +18859,98 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="155"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="143"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="143"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="151"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="143"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="143"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="151"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="143"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="151"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="143"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="151"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="144" t="s">
+      <c r="B17" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="146"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="147"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="149"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="159"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18384,59 +18970,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151" t="s">
+      <c r="D19" s="160"/>
+      <c r="E19" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="133"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18456,36 +19042,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18516,17 +19102,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -18583,46 +19169,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="176">
+      <c r="B6" s="192">
         <v>43668</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="164"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="177">
+      <c r="B7" s="193">
         <v>43668</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -18641,19 +19227,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="180"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -18662,11 +19248,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="24">
         <v>4</v>
       </c>
@@ -18683,19 +19269,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -18704,81 +19290,81 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -18798,59 +19384,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185" t="s">
+      <c r="C19" s="186"/>
+      <c r="D19" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="168"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -18891,6 +19477,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B10:D10"/>
@@ -18904,22 +19506,6 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18937,8 +19523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2374B758-A7DF-439E-A034-9A4A358A63C8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -18950,17 +19536,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -18984,7 +19570,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="104">
-        <v>43668</v>
+        <v>43669</v>
       </c>
       <c r="E3" s="110" t="s">
         <v>29</v>
@@ -19017,46 +19603,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="161"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="176">
+      <c r="B6" s="192">
         <v>43669</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="164"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="140"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="177">
+      <c r="B7" s="193">
         <v>43669</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -19075,19 +19661,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="194" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="180"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="196"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -19096,11 +19682,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -19117,19 +19703,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="171" t="s">
+      <c r="F11" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="151"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -19138,20 +19724,20 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="193" t="s">
+      <c r="F12" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="195" t="s">
+      <c r="G12" s="150"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
     </row>
@@ -19159,68 +19745,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="151"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
-      <c r="D17" s="183"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="149"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="159"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19240,59 +19826,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185" t="s">
+      <c r="C19" s="186"/>
+      <c r="D19" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="187"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="188"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="189"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="168"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="168"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="139"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="174"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19333,6 +19919,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="B22:C22"/>
@@ -19343,25 +19948,6 @@
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">

--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B6ECB-2261-412E-8C07-EDA65B8F79CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A5672-B81C-41CC-9BC4-3DE8A8F90E23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2019-7-22" sheetId="11" r:id="rId8"/>
     <sheet name="2019-7-23" sheetId="12" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="13" r:id="rId10"/>
+    <sheet name="2019-7-25" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -643,6 +644,46 @@
         <charset val="134"/>
       </rPr>
       <t>登陆功能</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完全完成</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目代码合并</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并完成了UI功能框架的编码（一个人的还有一个小BUG）</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人控制台项目总结</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人控制台项目设计方案</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完成个人控制台项目答辩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PPT</t>
     </r>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
@@ -1492,7 +1533,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1926,6 +1967,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1935,6 +1988,103 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1986,155 +2136,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2164,12 +2175,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -8668,6 +8725,85 @@
         </xdr:spPr>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D7899F-0F28-408D-AFF4-291C7CED0E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751820" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16059,17 +16195,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -16391,8 +16527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B491877D-99BA-4A29-98C0-1CED9F54C7C1}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -16404,17 +16540,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -16471,46 +16607,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="168"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="192">
-        <v>43669</v>
-      </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="B6" s="183">
+        <v>43670</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="193">
-        <v>43669</v>
-      </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
+      <c r="B7" s="184">
+        <v>43670</v>
+      </c>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -16529,19 +16665,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -16550,11 +16686,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -16571,19 +16707,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -16592,19 +16728,19 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="201" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
       <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
@@ -16613,68 +16749,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16694,59 +16830,509 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187" t="s">
+      <c r="C19" s="191"/>
+      <c r="D19" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="168"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{6D3D9845-2095-458C-91C6-3D041A781662}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{16F5F97B-5639-4957-A869-2D6A80201C2C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{0E8022EF-2E48-45AE-9C54-C1121481C6CF}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2C635B-FEAD-40FB-A2D4-A3999C908A8C}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="27.69921875" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="181" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="109"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43671</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="182" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="168"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="183">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="184">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="185" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="185" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="195" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="24">
+        <v>3</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="119" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="200" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="200" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="202" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="202" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120">
+        <v>6</v>
+      </c>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="188" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="26">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="191" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="198" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="137"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>2</v>
+      </c>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -16819,9 +17405,9 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{6D3D9845-2095-458C-91C6-3D041A781662}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{16F5F97B-5639-4957-A869-2D6A80201C2C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{0E8022EF-2E48-45AE-9C54-C1121481C6CF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{E2F21A6E-5AF8-4AD0-9F41-E94BBAA67712}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{CA78B9F5-9C91-4EF7-B28D-565C91855C1A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{1C1A99A5-D7CF-40E0-B255-26D29F05778C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17133,16 +17719,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -17332,15 +17918,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -17417,17 +18003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17484,46 +18070,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="169">
         <v>43664</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="172">
         <v>43664</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17542,19 +18128,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17563,19 +18149,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -17584,19 +18170,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="152" t="s">
+      <c r="C11" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -17605,19 +18191,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -17626,68 +18212,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -17707,61 +18293,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="164" t="s">
+      <c r="C20" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="166" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -17781,36 +18367,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -17829,7 +18415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -17849,17 +18435,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -17916,46 +18502,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -17974,19 +18560,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -17995,19 +18581,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18016,19 +18602,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="176" t="s">
+      <c r="G11" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -18037,81 +18623,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18131,61 +18717,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="164" t="s">
+      <c r="C20" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="166" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18205,36 +18791,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18271,17 +18857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18338,46 +18924,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18396,19 +18982,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18417,17 +19003,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18436,17 +19022,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -18455,17 +19041,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -18474,68 +19060,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18555,59 +19141,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18627,36 +19213,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18694,17 +19280,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18761,46 +19347,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="137"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="169" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18819,19 +19405,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="144" t="s">
+      <c r="C9" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18840,17 +19426,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="151"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18859,98 +19445,98 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="150"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="150"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="150"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="153"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="157"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="159"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18970,59 +19556,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161" t="s">
+      <c r="D19" s="157"/>
+      <c r="E19" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="165"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -19042,36 +19628,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:J22"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -19102,17 +19688,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -19169,46 +19755,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="168"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="192">
+      <c r="B6" s="183">
         <v>43668</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="184">
         <v>43668</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -19227,19 +19813,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -19248,11 +19834,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="195" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="24">
         <v>4</v>
       </c>
@@ -19269,19 +19855,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -19290,81 +19876,81 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19384,59 +19970,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187" t="s">
+      <c r="C19" s="191"/>
+      <c r="D19" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="168"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19477,22 +20063,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B10:D10"/>
@@ -19506,6 +20076,22 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -19536,17 +20122,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -19603,46 +20189,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="168"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="192">
+      <c r="B6" s="183">
         <v>43669</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="140"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="193">
+      <c r="B7" s="184">
         <v>43669</v>
       </c>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="174"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -19661,19 +20247,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="195"/>
-      <c r="H9" s="196"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="187"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -19682,11 +20268,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="195" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -19703,19 +20289,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="176" t="s">
+      <c r="F11" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -19724,19 +20310,19 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="197" t="s">
+      <c r="B12" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="198" t="s">
+      <c r="F12" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="150"/>
-      <c r="H12" s="151"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
       <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
@@ -19745,68 +20331,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="151"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="151"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="184"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="159"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="156"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19826,59 +20412,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="191" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="187" t="s">
+      <c r="C19" s="191"/>
+      <c r="D19" s="192" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="189"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="194"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="181" t="s">
+      <c r="B20" s="198" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="140"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="168"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="174"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="146"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -19919,6 +20505,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A1:I1"/>
@@ -19932,22 +20534,6 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">

--- a/个人日报/个人日报_邢国浩.xlsx
+++ b/个人日报/个人日报_邢国浩.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RES\主导项目-文件夹下分支了单独仓库\SummerTraining\个人日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A5672-B81C-41CC-9BC4-3DE8A8F90E23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCC204A-EFA3-49A1-986E-39D90A82EF3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2019-7-23" sheetId="12" r:id="rId9"/>
     <sheet name="2019-7-24" sheetId="13" r:id="rId10"/>
     <sheet name="2019-7-25" sheetId="14" r:id="rId11"/>
+    <sheet name="2019-7-26" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="父活动类型名" localSheetId="6">#REF!</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -595,10 +596,6 @@
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
-    <t>开始小组项目代码编写</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
     <t>完成小组项目代码UI设计</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
@@ -685,6 +682,38 @@
       </rPr>
       <t>PPT</t>
     </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行小组项目代码编写</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目代码编写</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目代码</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计并完成了所有框架功能的组合编码</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目代码测试</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组项目的分机测试</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作完成小组答辩PPT</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小组答辩PPT</t>
     <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
@@ -1533,7 +1562,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,6 +2008,18 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,103 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2136,16 +2080,155 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2174,48 +2257,6 @@
     <xf numFmtId="0" fontId="58" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -8774,6 +8815,85 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10751820" y="76200"/>
+          <a:ext cx="1213485" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB10124B-6160-45E3-AB9F-39F98B0769C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8770620" y="76200"/>
           <a:ext cx="1213485" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16195,17 +16315,17 @@
       <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" s="87" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A15" s="132" t="s">
+      <c r="A15" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
     </row>
     <row r="16" spans="1:9" s="87" customFormat="1" ht="17.399999999999999">
       <c r="A16" s="93"/>
@@ -16528,7 +16648,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -16540,17 +16660,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -16607,46 +16727,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
+      <c r="B5" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="198">
         <v>43670</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="199">
         <v>43670</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -16665,19 +16785,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -16686,16 +16806,16 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="125"/>
       <c r="H10" s="126"/>
@@ -16707,19 +16827,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="24">
         <v>2</v>
       </c>
-      <c r="F11" s="178" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
+      <c r="F11" s="182" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -16728,19 +16848,19 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="200" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="B12" s="203" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="201" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
+      <c r="F12" s="204" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
       <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
@@ -16749,68 +16869,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>6</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -16830,59 +16950,509 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192" t="s">
+      <c r="C19" s="192"/>
+      <c r="D19" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{6D3D9845-2095-458C-91C6-3D041A781662}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{16F5F97B-5639-4957-A869-2D6A80201C2C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{0E8022EF-2E48-45AE-9C54-C1121481C6CF}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2C635B-FEAD-40FB-A2D4-A3999C908A8C}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="4" max="4" width="27.69921875" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="23.4">
+      <c r="A1" s="196" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+    </row>
+    <row r="2" spans="1:9" ht="21.6">
+      <c r="A2" s="109"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A3" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43671</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2">
+      <c r="A4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="198">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="199">
+        <v>43671</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2">
+      <c r="A8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="24">
+      <c r="A9" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="200" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="24">
+        <v>3</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="153" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="23">
+        <v>3</v>
+      </c>
+      <c r="B12" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="203" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="205" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23">
+        <v>5</v>
+      </c>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="120">
+        <v>6</v>
+      </c>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="23">
+        <v>7</v>
+      </c>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="189" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="26">
+        <f>SUM(E10:E16)</f>
+        <v>7</v>
+      </c>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.2">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="192" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27">
+        <v>1</v>
+      </c>
+      <c r="B20" s="187" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="171"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="28">
+        <v>2</v>
+      </c>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.2" thickBot="1">
+      <c r="A22" s="29">
+        <v>3</v>
+      </c>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -16955,9 +17525,9 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{6D3D9845-2095-458C-91C6-3D041A781662}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{16F5F97B-5639-4957-A869-2D6A80201C2C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{0E8022EF-2E48-45AE-9C54-C1121481C6CF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{E2F21A6E-5AF8-4AD0-9F41-E94BBAA67712}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{CA78B9F5-9C91-4EF7-B28D-565C91855C1A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{1C1A99A5-D7CF-40E0-B255-26D29F05778C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16965,34 +17535,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2C635B-FEAD-40FB-A2D4-A3999C908A8C}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0821E40E-873F-4B3A-B75B-3B2BD3C06440}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="4" max="4" width="27.69921875" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="7" max="7" width="23.296875" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -17016,7 +17586,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="104">
-        <v>43671</v>
+        <v>43672</v>
       </c>
       <c r="E3" s="110" t="s">
         <v>29</v>
@@ -17049,46 +17619,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
+      <c r="B5" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="183">
-        <v>43671</v>
-      </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="B6" s="198">
+        <v>43672</v>
+      </c>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="184">
-        <v>43671</v>
-      </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
+      <c r="B7" s="199">
+        <v>43672</v>
+      </c>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -17107,19 +17677,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -17128,40 +17698,40 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="195" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="B10" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
-      <c r="F10" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
+      <c r="F10" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
       <c r="I10" s="119" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="B11" s="153" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="24">
         <v>1</v>
       </c>
-      <c r="F11" s="161" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
+      <c r="F11" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -17170,19 +17740,19 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="200" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="B12" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="24">
-        <v>2</v>
-      </c>
-      <c r="F12" s="200" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
       <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
@@ -17191,76 +17761,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="202" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
-      <c r="F13" s="202" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="128" t="s">
-        <v>89</v>
-      </c>
+      <c r="B13" s="205"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="128"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
-        <v>7</v>
-      </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -17280,59 +17842,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192" t="s">
+      <c r="C19" s="192"/>
+      <c r="D19" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -17405,9 +17967,9 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{E2F21A6E-5AF8-4AD0-9F41-E94BBAA67712}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{CA78B9F5-9C91-4EF7-B28D-565C91855C1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{1C1A99A5-D7CF-40E0-B255-26D29F05778C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="计划调整时，请保留原来的计划。以类似如下格式修改“2005/1/12-〉1/15”。" sqref="A6" xr:uid="{2EAD7ECB-42D6-4314-97AE-4C9063960DF4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对于已完成的关键任务，请将背景标记为淡黄色。" sqref="A5" xr:uid="{AAF17712-C851-4C0E-8C0F-40A2B1F8336E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="说明：" prompt="对整个项目周期中本模块的关键任务或里程碑进行跟踪。" sqref="A4" xr:uid="{B5B7D5A5-D81D-4FB5-BAAA-3681441EB2ED}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17719,16 +18281,16 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:9" s="40" customFormat="1" ht="45">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
     </row>
     <row r="17" spans="1:8" s="40" customFormat="1" ht="16.2">
       <c r="A17" s="52"/>
@@ -17918,15 +18480,15 @@
       <c r="A34" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
     </row>
     <row r="35" spans="1:8" s="38" customFormat="1" ht="18">
       <c r="A35" s="50"/>
@@ -17983,7 +18545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C20" sqref="C20:J20"/>
     </sheetView>
   </sheetViews>
@@ -18003,17 +18565,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18070,46 +18632,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="144">
         <v>43664</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="172">
+      <c r="C7" s="147">
         <v>43664</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18128,19 +18690,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18149,19 +18711,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="24">
         <v>1</v>
       </c>
-      <c r="G10" s="162" t="s">
+      <c r="G10" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18170,19 +18732,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="163" t="s">
+      <c r="C11" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="24">
         <v>2</v>
       </c>
-      <c r="G11" s="162" t="s">
+      <c r="G11" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -18191,19 +18753,19 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="24">
         <v>3</v>
       </c>
-      <c r="G12" s="162" t="s">
+      <c r="G12" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -18212,68 +18774,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18293,61 +18855,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="160"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18367,36 +18929,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18435,17 +18997,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18502,46 +19064,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18560,19 +19122,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -18581,19 +19143,19 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="178" t="s">
+      <c r="G10" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -18602,19 +19164,19 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="178" t="s">
+      <c r="G11" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -18623,81 +19185,81 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -18717,61 +19279,61 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="160"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="171"/>
+      <c r="E20" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -18791,36 +19353,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -18857,17 +19419,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -18924,46 +19486,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -18982,19 +19544,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -19003,17 +19565,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -19022,17 +19584,17 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="24">
         <v>3</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
@@ -19041,17 +19603,17 @@
       <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="24">
         <v>0.5</v>
       </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="35" t="s">
         <v>44</v>
       </c>
@@ -19060,68 +19622,68 @@
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -19141,59 +19703,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="160"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -19213,36 +19775,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -19280,17 +19842,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
     </row>
     <row r="2" spans="2:10" ht="7.5" customHeight="1">
       <c r="B2" s="7"/>
@@ -19347,46 +19909,46 @@
       <c r="B5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="171"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="2:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="19" t="s">
@@ -19405,19 +19967,19 @@
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="175" t="s">
+      <c r="G9" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="177"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="34" t="s">
         <v>42</v>
       </c>
@@ -19426,17 +19988,17 @@
       <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
       <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="157"/>
       <c r="J10" s="35" t="s">
         <v>44</v>
       </c>
@@ -19445,98 +20007,98 @@
       <c r="B11" s="23">
         <v>2</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
       <c r="F11" s="24">
         <v>3.5</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="161"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="150"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="23">
         <v>4</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
       <c r="J13" s="36"/>
     </row>
     <row r="14" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="23">
         <v>5</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
       <c r="J14" s="36"/>
     </row>
     <row r="15" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="25">
         <v>6</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="150"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="36"/>
     </row>
     <row r="16" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="23">
         <v>7</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="150"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="151" t="s">
+      <c r="B17" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="26">
         <f>SUM(F10:F16)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165"/>
       <c r="J17" s="37"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="22.5" customHeight="1">
@@ -19556,59 +20118,59 @@
       <c r="B19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="158" t="s">
+      <c r="D19" s="166"/>
+      <c r="E19" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="159"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="160"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="169"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="27">
         <v>1</v>
       </c>
-      <c r="C20" s="180" t="s">
+      <c r="C20" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="28">
         <v>2</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="2:10" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B22" s="29">
         <v>3</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="24" spans="2:10" ht="15.6">
       <c r="B24" s="30" t="s">
@@ -19628,36 +20190,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:J22"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -19688,17 +20250,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -19755,46 +20317,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="198">
         <v>43668</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="199">
         <v>43668</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -19813,19 +20375,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -19834,11 +20396,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="24">
         <v>4</v>
       </c>
@@ -19855,19 +20417,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="182" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -19876,81 +20438,81 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
       <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -19970,59 +20532,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192" t="s">
+      <c r="C19" s="192"/>
+      <c r="D19" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -20063,6 +20625,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="B10:D10"/>
@@ -20076,22 +20654,6 @@
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
@@ -20122,17 +20684,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.4">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="196" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" ht="21.6">
       <c r="A2" s="109"/>
@@ -20189,46 +20751,46 @@
       <c r="A5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="197" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="143"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="198">
         <v>43669</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="184">
+      <c r="B7" s="199">
         <v>43669</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="174"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
     </row>
     <row r="8" spans="1:9" ht="16.2">
       <c r="A8" s="19" t="s">
@@ -20247,19 +20809,19 @@
       <c r="A9" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="201"/>
+      <c r="D9" s="202"/>
       <c r="E9" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="185" t="s">
+      <c r="F9" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="202"/>
       <c r="I9" s="118" t="s">
         <v>42</v>
       </c>
@@ -20268,11 +20830,11 @@
       <c r="A10" s="23">
         <v>1</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="196"/>
-      <c r="D10" s="197"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
       <c r="E10" s="24">
         <v>3</v>
       </c>
@@ -20289,19 +20851,19 @@
       <c r="A11" s="23">
         <v>2</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="178" t="s">
+      <c r="F11" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="149"/>
-      <c r="H11" s="150"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
       <c r="I11" s="119" t="s">
         <v>44</v>
       </c>
@@ -20310,19 +20872,19 @@
       <c r="A12" s="23">
         <v>3</v>
       </c>
-      <c r="B12" s="200" t="s">
+      <c r="B12" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
       <c r="E12" s="24">
         <v>1</v>
       </c>
-      <c r="F12" s="201" t="s">
+      <c r="F12" s="204" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="150"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
       <c r="I12" s="128" t="s">
         <v>89</v>
       </c>
@@ -20331,68 +20893,68 @@
       <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="150"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
       <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="120">
         <v>6</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="150"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
       <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="23">
         <v>7</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="150"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
       <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="188" t="s">
+      <c r="A17" s="189" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
       <c r="E17" s="26">
         <f>SUM(E10:E16)</f>
         <v>7</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="156"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="165"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
@@ -20412,59 +20974,59 @@
       <c r="A19" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="191" t="s">
+      <c r="B19" s="192" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192" t="s">
+      <c r="C19" s="192"/>
+      <c r="D19" s="193" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="137"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="140"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="174"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="28">
         <v>2</v>
       </c>
-      <c r="B21" s="136"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="140"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="174"/>
     </row>
     <row r="22" spans="1:9" ht="16.2" thickBot="1">
       <c r="A22" s="29">
         <v>3</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="146"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1"/>
@@ -20505,22 +21067,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="A1:I1"/>
@@ -20534,6 +21080,22 @@
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
